--- a/Stocks/IGL.xlsx
+++ b/Stocks/IGL.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>1058.1000000000001</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>1182.9671290988242</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>1153.1190226650442</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>57.49845762843654</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>3.7000000000000455</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>34.200000000000045</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.10818713450292516</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>1128.5785319496397</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>27.899208504736862</v>
       </c>
       <c r="Y67">
         <v>23.993663092895389</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>1251.5</v>
+      </c>
+      <c r="D83">
+        <v>1261</v>
+      </c>
+      <c r="E83">
+        <v>1240</v>
+      </c>
+      <c r="F83">
+        <v>1249</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>1250</v>
+      </c>
+      <c r="H83">
+        <v>1255.1615595570238</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J83">
+        <v>1271.9173299781589</v>
+      </c>
+      <c r="K83">
+        <v>1240.305343481147</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>44.40479509690298</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>9</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>21</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>1248.9505123603005</v>
+      </c>
+      <c r="W83">
+        <v>1215.046636365422</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>33.90387599487849</v>
+      </c>
+      <c r="Y83">
+        <v>37.305027098514593</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>1243.05</v>
+      </c>
+      <c r="D84">
+        <v>1258</v>
+      </c>
+      <c r="E84">
+        <v>1218.5</v>
+      </c>
+      <c r="F84">
+        <v>1241</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>1239.1666666666667</v>
+      </c>
+      <c r="H84">
+        <v>1247.1641131118454</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>1268.8245899830124</v>
+      </c>
+      <c r="K84">
+        <v>1235.4597115964477</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>38.346926959506931</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>22.5</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>39.5</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.569620253164557</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>1247.7273566125621</v>
+      </c>
+      <c r="W84">
+        <v>1216.9691077457612</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>30.758248866800841</v>
+      </c>
+      <c r="Y84">
+        <v>35.995671452171841</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>1250</v>
+      </c>
+      <c r="D85">
+        <v>1268</v>
+      </c>
+      <c r="E85">
+        <v>1245.1500000000001</v>
+      </c>
+      <c r="F85">
+        <v>1258</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>1257.05</v>
+      </c>
+      <c r="H85">
+        <v>1252.1070565559226</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>1268.6413477645651</v>
+      </c>
+      <c r="K85">
+        <v>1237.6131090194594</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>54.745904796441557</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>12.849999999999909</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>22.849999999999909</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.56236323851203329</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>1249.3077632875525</v>
+      </c>
+      <c r="W85">
+        <v>1220.0084330979271</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>29.29933018962538</v>
+      </c>
+      <c r="Y85">
+        <v>34.656403199662549</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>1268.5</v>
+      </c>
+      <c r="D86">
+        <v>1290</v>
+      </c>
+      <c r="E86">
+        <v>1259.05</v>
+      </c>
+      <c r="F86">
+        <v>1273</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>1274.0166666666667</v>
+      </c>
+      <c r="H86">
+        <v>1263.0618616112947</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>1273.3877149279951</v>
+      </c>
+      <c r="K86">
+        <v>1242.3768625706907</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>65.010688416230465</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>13.950000000000045</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>30.950000000000045</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.45072697899838532</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>1252.9527227817753</v>
+      </c>
+      <c r="W86">
+        <v>1223.9337343499326</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>29.018988431842672</v>
+      </c>
+      <c r="Y86">
+        <v>33.528920246098572</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>1275.7</v>
+      </c>
+      <c r="D87">
+        <v>1290</v>
+      </c>
+      <c r="E87">
+        <v>1266</v>
+      </c>
+      <c r="F87">
+        <v>1270.5</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>1275.5</v>
+      </c>
+      <c r="H87">
+        <v>1269.2809308056474</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>1277.0793338328851</v>
+      </c>
+      <c r="K87">
+        <v>1247.6264486660928</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>62.077210206401169</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>4.5</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>24</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.1875</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>1255.6523038922714</v>
+      </c>
+      <c r="W87">
+        <v>1227.3830873610486</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>28.26921653122281</v>
+      </c>
+      <c r="Y87">
+        <v>32.476979503123417</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>1275</v>
+      </c>
+      <c r="D88">
+        <v>1292.5</v>
+      </c>
+      <c r="E88">
+        <v>1252.55</v>
+      </c>
+      <c r="F88">
+        <v>1275</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>1273.3500000000001</v>
+      </c>
+      <c r="H88">
+        <v>1271.3154654028237</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>1280.5061485366884</v>
+      </c>
+      <c r="K88">
+        <v>1248.7205711847389</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>65.572521319470894</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>22.450000000000045</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>39.950000000000045</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.56195244055068883</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>1258.6288725242298</v>
+      </c>
+      <c r="W88">
+        <v>1230.910266075045</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>27.71860644918479</v>
+      </c>
+      <c r="Y88">
+        <v>31.52530489233569</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>1290</v>
+      </c>
+      <c r="D89">
+        <v>1324</v>
+      </c>
+      <c r="E89">
+        <v>1261.1500000000001</v>
+      </c>
+      <c r="F89">
+        <v>1322.45</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>1302.5333333333335</v>
+      </c>
+      <c r="H89">
+        <v>1286.9243993680786</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>1290.1714488618688</v>
+      </c>
+      <c r="K89">
+        <v>1251.4826664770192</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>84.456001184497225</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>61.299999999999955</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>62.849999999999909</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.97533810660302378</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V89">
+        <v>1268.4475075205021</v>
+      </c>
+      <c r="W89">
+        <v>1237.6909871065232</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>30.756520413978933</v>
+      </c>
+      <c r="Y89">
+        <v>31.37154799666434</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>1312</v>
+      </c>
+      <c r="D90">
+        <v>1329.45</v>
+      </c>
+      <c r="E90">
+        <v>1301.5</v>
+      </c>
+      <c r="F90">
+        <v>1305</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>1311.9833333333333</v>
+      </c>
+      <c r="H90">
+        <v>1299.453866350706</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>1298.9000157814535</v>
+      </c>
+      <c r="K90">
+        <v>1262.597629482126</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>67.44919351610524</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>3.5</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>27.950000000000045</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.12522361359570641</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>1274.0709679019633</v>
+      </c>
+      <c r="W90">
+        <v>1242.6768399134473</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>31.394127988515947</v>
+      </c>
+      <c r="Y90">
+        <v>31.376063995034663</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>1312</v>
+      </c>
+      <c r="D91">
+        <v>1321.6</v>
+      </c>
+      <c r="E91">
+        <v>1307.45</v>
+      </c>
+      <c r="F91">
+        <v>1313.95</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>1314.3333333333333</v>
+      </c>
+      <c r="H91">
+        <v>1306.8935998420197</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>1303.9444567189082</v>
+      </c>
+      <c r="K91">
+        <v>1272.5648229305425</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>71.171043206996515</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>6.5</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>14.149999999999864</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.45936395759717757</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>1280.2062036093535</v>
+      </c>
+      <c r="W91">
+        <v>1247.956333253192</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>32.249870356161409</v>
+      </c>
+      <c r="Y91">
+        <v>31.550825267260013</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>1314</v>
+      </c>
+      <c r="D92">
+        <v>1384.45</v>
+      </c>
+      <c r="E92">
+        <v>1312.45</v>
+      </c>
+      <c r="F92">
+        <v>1378.5</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>1358.4666666666667</v>
+      </c>
+      <c r="H92">
+        <v>1332.6801332543432</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J92">
+        <v>1321.8345774480397</v>
+      </c>
+      <c r="K92">
+        <v>1281.4281956126442</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N92">
+        <v>85.804235622746234</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>66.049999999999955</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>72</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.91736111111111052</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V92">
+        <v>1295.3283261309914</v>
+      </c>
+      <c r="W92">
+        <v>1257.6262344936963</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>37.702091637295098</v>
+      </c>
+      <c r="Y92">
+        <v>32.781078541267028</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD92">
+        <f t="shared" si="35"/>
+        <v>1320.65</v>
+      </c>
+      <c r="AE92">
+        <f t="shared" si="36"/>
+        <v>1339.95</v>
+      </c>
+      <c r="AF92">
+        <f t="shared" si="37"/>
+        <v>1348.45</v>
+      </c>
+      <c r="AG92">
+        <f t="shared" si="38"/>
+        <v>1356.95</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>1403.9</v>
+      </c>
+      <c r="D93">
+        <v>1403.9</v>
+      </c>
+      <c r="E93">
+        <v>1377.05</v>
+      </c>
+      <c r="F93">
+        <v>1381</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>1387.3166666666666</v>
+      </c>
+      <c r="H93">
+        <v>1359.9983999605049</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>1340.0713380151419</v>
+      </c>
+      <c r="K93">
+        <v>1302.677485476501</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>86.144706263838486</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>3.9500000000000455</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>26.850000000000136</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.1471135940409693</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>1308.5085836493004</v>
+      </c>
+      <c r="W93">
+        <v>1266.7650319386078</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>41.7435517106926</v>
+      </c>
+      <c r="Y93">
+        <v>34.573573175152141</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>1385.1</v>
+      </c>
+      <c r="D94">
+        <v>1441.45</v>
+      </c>
+      <c r="E94">
+        <v>1384</v>
+      </c>
+      <c r="F94">
+        <v>1429.2</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>1418.2166666666665</v>
+      </c>
+      <c r="H94">
+        <v>1389.1075333135857</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>1362.5999295673325</v>
+      </c>
+      <c r="K94">
+        <v>1320.749155370612</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>91.219787184173782</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>45.200000000000045</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>57.450000000000045</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.78677110530896444</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>1327.0764938571003</v>
+      </c>
+      <c r="W94">
+        <v>1278.7972517950072</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>48.27924206209309</v>
+      </c>
+      <c r="Y94">
+        <v>37.314706952540334</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>1426.45</v>
+      </c>
+      <c r="D95">
+        <v>1438.9</v>
+      </c>
+      <c r="E95">
+        <v>1378.55</v>
+      </c>
+      <c r="F95">
+        <v>1416.25</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>1411.2333333333333</v>
+      </c>
+      <c r="H95">
+        <v>1400.1704333234595</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>1379.555500774592</v>
+      </c>
+      <c r="K95">
+        <v>1333.593787510476</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N95">
+        <v>81.227537768678033</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>37.700000000000045</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>60.350000000000136</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.62468931234465552</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>1340.7954948021618</v>
+      </c>
+      <c r="W95">
+        <v>1288.9789368472289</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>51.816557954932932</v>
+      </c>
+      <c r="Y95">
+        <v>40.215077153018854</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>1406</v>
+      </c>
+      <c r="D96">
+        <v>1438</v>
+      </c>
+      <c r="E96">
+        <v>1406</v>
+      </c>
+      <c r="F96">
+        <v>1427.25</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>1423.75</v>
+      </c>
+      <c r="H96">
+        <v>1411.9602166617296</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>1392.543167269127</v>
+      </c>
+      <c r="K96">
+        <v>1349.6840569525925</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>83.183428542119273</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>21.25</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>32</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.6640625</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>1354.0961879095214</v>
+      </c>
+      <c r="W96">
+        <v>1299.2212378215081</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>54.874950088013293</v>
+      </c>
+      <c r="Y96">
+        <v>43.147051740017744</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>1424</v>
+      </c>
+      <c r="D97">
+        <v>1452.5</v>
+      </c>
+      <c r="E97">
+        <v>1408.45</v>
+      </c>
+      <c r="F97">
+        <v>1436.45</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>1432.4666666666665</v>
+      </c>
+      <c r="H97">
+        <v>1422.2134416641979</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>1405.8669078759876</v>
+      </c>
+      <c r="K97">
+        <v>1362.743155407572</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>84.835252282785959</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>28</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>44.049999999999955</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.63564131668558521</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>1366.7660051542105</v>
+      </c>
+      <c r="W97">
+        <v>1309.3863313162112</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>57.379673837999235</v>
+      </c>
+      <c r="Y97">
+        <v>45.993576159614044</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>1441</v>
+      </c>
+      <c r="D98">
+        <v>1451.85</v>
+      </c>
+      <c r="E98">
+        <v>1430.5</v>
+      </c>
+      <c r="F98">
+        <v>1448</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>1443.45</v>
+      </c>
+      <c r="H98">
+        <v>1432.8317208320991</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>1416.0853727924348</v>
+      </c>
+      <c r="K98">
+        <v>1377.8002319836671</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>86.86062568143501</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>17.5</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>21.349999999999909</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.81967213114754445</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V98">
+        <v>1379.2635428227934</v>
+      </c>
+      <c r="W98">
+        <v>1319.6540104779733</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>59.609532344820082</v>
+      </c>
+      <c r="Y98">
+        <v>48.71676739665525</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD98">
+        <f t="shared" si="35"/>
+        <v>1432.95</v>
+      </c>
+      <c r="AE98">
+        <f t="shared" si="36"/>
+        <v>1438.65</v>
+      </c>
+      <c r="AF98">
+        <f t="shared" si="37"/>
+        <v>1441.15</v>
+      </c>
+      <c r="AG98">
+        <f t="shared" si="38"/>
+        <v>1443.7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>1457.15</v>
+      </c>
+      <c r="D99">
+        <v>1488</v>
+      </c>
+      <c r="E99">
+        <v>1451</v>
+      </c>
+      <c r="F99">
+        <v>1486</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>1475</v>
+      </c>
+      <c r="H99">
+        <v>1453.9158604160496</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>1432.0664010607827</v>
+      </c>
+      <c r="K99">
+        <v>1394.0668470984078</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>91.518959966338073</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>35</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>37</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.94594594594594594</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V99">
+        <v>1395.6845362346714</v>
+      </c>
+      <c r="W99">
+        <v>1331.975935627753</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>63.70860060691848</v>
+      </c>
+      <c r="Y99">
+        <v>51.715134038707895</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD99">
+        <f t="shared" si="35"/>
+        <v>1455.2</v>
+      </c>
+      <c r="AE99">
+        <f t="shared" si="36"/>
+        <v>1465.15</v>
+      </c>
+      <c r="AF99">
+        <f t="shared" si="37"/>
+        <v>1469.5</v>
+      </c>
+      <c r="AG99">
+        <f t="shared" si="38"/>
+        <v>1473.8500000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>1486</v>
+      </c>
+      <c r="D100">
+        <v>1505.5</v>
+      </c>
+      <c r="E100">
+        <v>1474.1</v>
+      </c>
+      <c r="F100">
+        <v>1500</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>1493.2</v>
+      </c>
+      <c r="H100">
+        <v>1473.5579302080248</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J100">
+        <v>1448.3849786028311</v>
+      </c>
+      <c r="K100">
+        <v>1411.8519921876505</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N100">
+        <v>92.709320276233342</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>25.900000000000091</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>31.400000000000091</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.82484076433121067</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V100">
+        <v>1411.733069121645</v>
+      </c>
+      <c r="W100">
+        <v>1344.4221626182898</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>67.310906503355227</v>
+      </c>
+      <c r="Y100">
+        <v>54.834288531637362</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD100">
+        <f t="shared" si="35"/>
+        <v>1477.7</v>
+      </c>
+      <c r="AE100">
+        <f t="shared" si="36"/>
+        <v>1486.1000000000001</v>
+      </c>
+      <c r="AF100">
+        <f t="shared" si="37"/>
+        <v>1489.8000000000002</v>
+      </c>
+      <c r="AG100">
+        <f t="shared" si="38"/>
+        <v>1493.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>1500</v>
+      </c>
+      <c r="D101">
+        <v>1523.9</v>
+      </c>
+      <c r="E101">
+        <v>1484.55</v>
+      </c>
+      <c r="F101">
+        <v>1519.9</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>1509.45</v>
+      </c>
+      <c r="H101">
+        <v>1491.5039651040124</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>1465.1660944688686</v>
+      </c>
+      <c r="K101">
+        <v>1428.0071050348392</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N101">
+        <v>94.16456923973756</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>35.350000000000136</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>39.350000000000136</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.89834815756035613</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V101">
+        <v>1428.3741354106228</v>
+      </c>
+      <c r="W101">
+        <v>1357.420520942861</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>70.953614467761781</v>
+      </c>
+      <c r="Y101">
+        <v>58.058153718862243</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD101">
+        <f t="shared" si="35"/>
+        <v>1489.0500000000002</v>
+      </c>
+      <c r="AE101">
+        <f t="shared" si="36"/>
+        <v>1499.6000000000001</v>
+      </c>
+      <c r="AF101">
+        <f t="shared" si="37"/>
+        <v>1504.2</v>
+      </c>
+      <c r="AG101">
+        <f t="shared" si="38"/>
+        <v>1508.8500000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>1503.5</v>
+      </c>
+      <c r="D102">
+        <v>1510</v>
+      </c>
+      <c r="E102">
+        <v>1429.7</v>
+      </c>
+      <c r="F102">
+        <v>1444.9</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>1461.5333333333335</v>
+      </c>
+      <c r="H102">
+        <v>1476.5186492186731</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>1475.1291845868977</v>
+      </c>
+      <c r="K102">
+        <v>1428.3833039159861</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N102">
+        <v>48.529793444357232</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>15.200000000000045</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>80.299999999999955</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.18929016189290229</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>1430.9165761166807</v>
+      </c>
+      <c r="W102">
+        <v>1363.900482354501</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>67.016093762179707</v>
+      </c>
+      <c r="Y102">
+        <v>59.849741727525739</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>1439.9</v>
+      </c>
+      <c r="D103">
+        <v>1463.8</v>
+      </c>
+      <c r="E103">
+        <v>1397</v>
+      </c>
+      <c r="F103">
+        <v>1455.55</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>1438.7833333333335</v>
+      </c>
+      <c r="H103">
+        <v>1457.6509912760034</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>1472.6115880120315</v>
+      </c>
+      <c r="K103">
+        <v>1421.4092363791003</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N103">
+        <v>52.606639034262137</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>58.549999999999955</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>66.799999999999955</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.87649700598802383</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>1434.7063336371914</v>
+      </c>
+      <c r="W103">
+        <v>1370.6893355134268</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>64.016998123764552</v>
+      </c>
+      <c r="Y103">
+        <v>60.6831930067735</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>1463.4</v>
+      </c>
+      <c r="D104">
+        <v>1470.05</v>
+      </c>
+      <c r="E104">
+        <v>1429.95</v>
+      </c>
+      <c r="F104">
+        <v>1434.35</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>1444.7833333333335</v>
+      </c>
+      <c r="H104">
+        <v>1451.2171623046684</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>1472.04234623158</v>
+      </c>
+      <c r="K104">
+        <v>1423.3071838504113</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>43.945433064372409</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>4.3999999999998636</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>40.099999999999909</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.109725685785533</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>1434.6515130776236</v>
+      </c>
+      <c r="W104">
+        <v>1375.4049402902101</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>59.24657278741347</v>
+      </c>
+      <c r="Y104">
+        <v>60.395868962901496</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>1443</v>
+      </c>
+      <c r="D105">
+        <v>1446.85</v>
+      </c>
+      <c r="E105">
+        <v>1399.85</v>
+      </c>
+      <c r="F105">
+        <v>1400</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>1415.5666666666666</v>
+      </c>
+      <c r="H105">
+        <v>1433.3919144856675</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>1466.4440470690067</v>
+      </c>
+      <c r="K105">
+        <v>1418.0944763280977</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>32.956039662192886</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>0.15000000000009095</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>47</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>3.1914893617040626E-3</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>1429.3205110656816</v>
+      </c>
+      <c r="W105">
+        <v>1377.2267965650094</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>52.093714500672149</v>
+      </c>
+      <c r="Y105">
+        <v>58.735438070455629</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>1400.15</v>
+      </c>
+      <c r="D106">
+        <v>1469.45</v>
+      </c>
+      <c r="E106">
+        <v>1390.55</v>
+      </c>
+      <c r="F106">
+        <v>1463.25</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>1441.0833333333333</v>
+      </c>
+      <c r="H106">
+        <v>1437.2376239095004</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J106">
+        <v>1467.1120366092275</v>
+      </c>
+      <c r="K106">
+        <v>1411.9734815885204</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N106">
+        <v>57.448007279181724</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>72.700000000000045</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>78.900000000000091</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.92141951837769276</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>1434.540432440192</v>
+      </c>
+      <c r="W106">
+        <v>1383.5988857083421</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>50.94154673184994</v>
+      </c>
+      <c r="Y106">
+        <v>57.176659802734491</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>1464.8</v>
+      </c>
+      <c r="D107">
+        <v>1507</v>
+      </c>
+      <c r="E107">
+        <v>1463.8</v>
+      </c>
+      <c r="F107">
+        <v>1474.9</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>1481.9000000000003</v>
+      </c>
+      <c r="H107">
+        <v>1459.5688119547503</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>1475.9760284738436</v>
+      </c>
+      <c r="K107">
+        <v>1423.4904856799603</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>60.749319609680072</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>11.100000000000136</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>43.200000000000045</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.25694444444444731</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>1440.7495966801625</v>
+      </c>
+      <c r="W107">
+        <v>1390.3619312114279</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>50.387665468734667</v>
+      </c>
+      <c r="Y107">
+        <v>55.818860935934524</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
